--- a/testopencode.xlsx
+++ b/testopencode.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasil\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055800A9-160A-479D-BDC4-82C7160B0E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918B2A2F-A4C4-450F-BF62-8072E709443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{21D97131-7617-4659-93FA-EECFC556A42B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{21D97131-7617-4659-93FA-EECFC556A42B}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек лист тестирования" sheetId="1" r:id="rId1"/>
     <sheet name="Тест кейсы" sheetId="5" r:id="rId2"/>
     <sheet name="Тестовые прогоны" sheetId="6" r:id="rId3"/>
-    <sheet name="Типа баг-репорт" sheetId="3" r:id="rId4"/>
+    <sheet name="Баг-репорт" sheetId="3" r:id="rId4"/>
     <sheet name="Баг 1" sheetId="7" r:id="rId5"/>
     <sheet name="Баг 2" sheetId="8" r:id="rId6"/>
     <sheet name="Баг 3" sheetId="9" r:id="rId7"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="317">
   <si>
     <t>id</t>
   </si>
@@ -976,6 +976,27 @@
   </si>
   <si>
     <t>Обработка неверного формата конечой даты в месяце</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выводится сообщение "Введите начальную дату в формате dd.mm.yyyy (01.01.2010) :"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выводится сообщение "Введите начальную дату в формате d.m.y (01.01.2010) :"</t>
+  </si>
+  <si>
+    <t>Выводится дата/время из выбранного диапазона формата dd.mm.yyyy hh.mm.ss:доли секунд</t>
+  </si>
+  <si>
+    <t>Выводится сообщение "Введите начальную дату в формате dd.mm.yyyy (01.01.2010):"</t>
+  </si>
+  <si>
+    <t>Выводится сообщение "Введите конечную дату в формате dd.mm.yyyy (01.01.2018):"</t>
+  </si>
+  <si>
+    <t>Данные приняты системой, вывод результата из диапозона</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1135,14 +1156,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1156,6 +1171,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1804,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56883A0-BF23-4728-8376-7514BE15DB78}">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2681,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CDEEAC-F3D2-4AC5-B3AB-01973FC4CFE9}">
   <dimension ref="A1:J559"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5256,7 +5274,7 @@
       <c r="E298" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F298" s="23" t="s">
+      <c r="F298" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5385,7 +5403,7 @@
       <c r="E315" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F315" s="23" t="s">
+      <c r="F315" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5429,7 +5447,7 @@
       <c r="E320" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F320" s="23" t="s">
+      <c r="F320" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7406,7 +7424,7 @@
   <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7417,7 +7435,7 @@
     <col min="4" max="4" width="26.5546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" style="6" customWidth="1"/>
     <col min="6" max="6" width="35.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="23" customWidth="1"/>
     <col min="8" max="8" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7496,10 +7514,10 @@
       <c r="F5" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7864,7 +7882,7 @@
       <c r="G37" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7920,10 +7938,10 @@
       <c r="F42" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10718,7 +10736,7 @@
       <c r="G292" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="H292" s="23" t="s">
+      <c r="H292" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10777,7 +10795,7 @@
       <c r="G297" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="H297" s="23" t="s">
+      <c r="H297" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10833,7 +10851,7 @@
       <c r="F302" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G302" s="25" t="s">
+      <c r="G302" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -10889,7 +10907,7 @@
       <c r="F307" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G307" s="25" t="s">
+      <c r="G307" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -10945,7 +10963,7 @@
       <c r="F312" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G312" s="25" t="s">
+      <c r="G312" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11012,7 +11030,7 @@
       <c r="F318" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G318" s="25" t="s">
+      <c r="G318" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11068,7 +11086,7 @@
       <c r="F324" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G324" s="25" t="s">
+      <c r="G324" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11124,7 +11142,7 @@
       <c r="F329" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G329" s="25" t="s">
+      <c r="G329" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11180,7 +11198,7 @@
       <c r="F334" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G334" s="25" t="s">
+      <c r="G334" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11236,7 +11254,7 @@
       <c r="F339" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G339" s="25" t="s">
+      <c r="G339" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11292,7 +11310,7 @@
       <c r="F344" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G344" s="25" t="s">
+      <c r="G344" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11348,7 +11366,7 @@
       <c r="F349" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G349" s="25" t="s">
+      <c r="G349" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11404,7 +11422,7 @@
       <c r="F354" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G354" s="25" t="s">
+      <c r="G354" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11460,7 +11478,7 @@
       <c r="F359" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G359" s="25" t="s">
+      <c r="G359" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11516,7 +11534,7 @@
       <c r="F364" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G364" s="25" t="s">
+      <c r="G364" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11572,7 +11590,7 @@
       <c r="F369" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G369" s="25" t="s">
+      <c r="G369" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11628,7 +11646,7 @@
       <c r="F374" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G374" s="25" t="s">
+      <c r="G374" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11684,7 +11702,7 @@
       <c r="F379" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G379" s="25" t="s">
+      <c r="G379" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11740,7 +11758,7 @@
       <c r="F384" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G384" s="25" t="s">
+      <c r="G384" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11796,7 +11814,7 @@
       <c r="F389" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G389" s="25" t="s">
+      <c r="G389" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11852,7 +11870,7 @@
       <c r="F394" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G394" s="25" t="s">
+      <c r="G394" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11908,7 +11926,7 @@
       <c r="F399" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G399" s="25" t="s">
+      <c r="G399" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11964,7 +11982,7 @@
       <c r="F404" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G404" s="25" t="s">
+      <c r="G404" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12020,7 +12038,7 @@
       <c r="F409" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G409" s="25" t="s">
+      <c r="G409" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12076,7 +12094,7 @@
       <c r="F414" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G414" s="25" t="s">
+      <c r="G414" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12132,7 +12150,7 @@
       <c r="F419" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G419" s="25" t="s">
+      <c r="G419" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12188,7 +12206,7 @@
       <c r="F424" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G424" s="25" t="s">
+      <c r="G424" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12244,7 +12262,7 @@
       <c r="F429" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G429" s="25" t="s">
+      <c r="G429" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12300,7 +12318,7 @@
       <c r="F434" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G434" s="25" t="s">
+      <c r="G434" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12356,7 +12374,7 @@
       <c r="F439" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G439" s="25" t="s">
+      <c r="G439" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12412,7 +12430,7 @@
       <c r="F444" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G444" s="25" t="s">
+      <c r="G444" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12468,7 +12486,7 @@
       <c r="F449" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G449" s="25" t="s">
+      <c r="G449" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12524,7 +12542,7 @@
       <c r="F454" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G454" s="25" t="s">
+      <c r="G454" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12580,7 +12598,7 @@
       <c r="F459" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G459" s="25" t="s">
+      <c r="G459" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12647,7 +12665,7 @@
       <c r="F465" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G465" s="25" t="s">
+      <c r="G465" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12706,7 +12724,7 @@
       <c r="F472" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G472" s="25" t="s">
+      <c r="G472" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12762,7 +12780,7 @@
       <c r="F477" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G477" s="25" t="s">
+      <c r="G477" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12818,7 +12836,7 @@
       <c r="F482" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G482" s="25" t="s">
+      <c r="G482" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12874,7 +12892,7 @@
       <c r="F487" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G487" s="25" t="s">
+      <c r="G487" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12938,7 +12956,7 @@
       <c r="F493" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G493" s="25" t="s">
+      <c r="G493" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13002,7 +13020,7 @@
       <c r="F499" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G499" s="25" t="s">
+      <c r="G499" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13058,7 +13076,7 @@
       <c r="F504" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G504" s="25" t="s">
+      <c r="G504" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13114,7 +13132,7 @@
       <c r="F509" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G509" s="25" t="s">
+      <c r="G509" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13181,7 +13199,7 @@
       <c r="F515" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G515" s="25" t="s">
+      <c r="G515" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13237,7 +13255,7 @@
       <c r="F520" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G520" s="25" t="s">
+      <c r="G520" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13293,7 +13311,7 @@
       <c r="F525" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G525" s="25" t="s">
+      <c r="G525" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13349,7 +13367,7 @@
       <c r="F530" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G530" s="25" t="s">
+      <c r="G530" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13416,7 +13434,7 @@
       <c r="F536" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G536" s="25" t="s">
+      <c r="G536" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13483,7 +13501,7 @@
       <c r="F542" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G542" s="25" t="s">
+      <c r="G542" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13539,7 +13557,7 @@
       <c r="F547" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G547" s="25" t="s">
+      <c r="G547" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -13550,10 +13568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF58A45-F0F0-45ED-877E-98515C47F31B}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13561,47 +13579,53 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="18.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="71.21875" customWidth="1"/>
+    <col min="5" max="7" width="17.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="71.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>281</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -13611,29 +13635,39 @@
       <c r="C2" t="s">
         <v>287</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>288</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" t="s">
         <v>290</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>291</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>292</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>293</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="L2" s="29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -13643,29 +13677,39 @@
       <c r="C4" t="s">
         <v>287</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>288</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" t="s">
         <v>290</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>296</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>292</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>297</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="L4" s="28" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -13675,29 +13719,39 @@
       <c r="C6" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>288</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" t="s">
         <v>290</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>296</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>292</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>297</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="L6" s="28" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -13707,29 +13761,38 @@
       <c r="C8" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>288</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" t="s">
         <v>290</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>296</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>292</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>297</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="L8" s="28" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -13739,29 +13802,35 @@
       <c r="C10" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>288</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" t="s">
         <v>290</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>296</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>292</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>297</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="L10" s="28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -13771,36 +13840,42 @@
       <c r="C12" t="s">
         <v>287</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>288</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" t="s">
         <v>290</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>296</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>292</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>297</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="L12" s="28" t="s">
         <v>305</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" location="Other!A1" display="Баг 1" xr:uid="{1B17DAA4-2DCC-4E54-A452-21244E2E48A5}"/>
-    <hyperlink ref="J4" location="'Баг 2'!A1" display="Баг 2" xr:uid="{91C54D8C-5760-4D4A-96B6-D6410B7F337D}"/>
-    <hyperlink ref="J6" location="'Баг 3'!A1" display="Баг 3" xr:uid="{D40026DD-391E-479F-BAF2-5D63362A6907}"/>
-    <hyperlink ref="J8" location="'Баг 4'!A1" display="Баг 4" xr:uid="{6245B61A-1796-4E65-89EC-7AB8910FF065}"/>
-    <hyperlink ref="J10" location="'Баг 5'!A1" display="Баг 5" xr:uid="{39C4E637-1179-4DF9-8333-23FA5FBC5BC6}"/>
-    <hyperlink ref="J12" location="'Баг 6'!A1" display="Баг 6" xr:uid="{3565FA32-2A62-475D-A948-B0A77F75CD5E}"/>
+    <hyperlink ref="L2" location="Other!A1" display="Баг 1" xr:uid="{1B17DAA4-2DCC-4E54-A452-21244E2E48A5}"/>
+    <hyperlink ref="L4" location="'Баг 2'!A1" display="Баг 2" xr:uid="{91C54D8C-5760-4D4A-96B6-D6410B7F337D}"/>
+    <hyperlink ref="L6" location="'Баг 3'!A1" display="Баг 3" xr:uid="{D40026DD-391E-479F-BAF2-5D63362A6907}"/>
+    <hyperlink ref="L8" location="'Баг 4'!A1" display="Баг 4" xr:uid="{6245B61A-1796-4E65-89EC-7AB8910FF065}"/>
+    <hyperlink ref="L10" location="'Баг 5'!A1" display="Баг 5" xr:uid="{39C4E637-1179-4DF9-8333-23FA5FBC5BC6}"/>
+    <hyperlink ref="L12" location="'Баг 6'!A1" display="Баг 6" xr:uid="{3565FA32-2A62-475D-A948-B0A77F75CD5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13838,9 +13913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4697C9-2006-43EC-82FC-4B4ED0577E18}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
